--- a/khrwhjvtReport-2.xlsx
+++ b/khrwhjvtReport-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harish7KJ/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="68" documentId="5E468C1BB0B3FB08B77CB2336C5D4C315534BE14" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{1D9CDDB5-E3A9-431A-8258-96D399C7BC7A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="23040" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="214">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -712,12 +713,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -744,8 +745,13 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <b/>
@@ -755,6 +761,10 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="3">
@@ -857,7 +867,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -878,9 +888,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -889,15 +896,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -981,7 +999,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1007,13 +1025,13 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,25 +1043,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5795-419D-BE09-C3BBDA1361DE}"/>
             </c:ext>
@@ -1069,7 +1087,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1102,14 +1120,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1135,13 +1153,13 @@
             <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,16 +1171,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2CBE-44F9-A43F-F19DA2381D0D}"/>
             </c:ext>
@@ -1188,7 +1206,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1221,7 +1239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1247,7 +1265,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1303,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1378,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +1443,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1512,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1582,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1651,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1721,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,22 +2061,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2085,14 +2103,14 @@
       <c r="C3" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>181</v>
       </c>
       <c r="E3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2102,14 +2120,14 @@
       <c r="C4" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>184</v>
       </c>
       <c r="E4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2119,14 +2137,14 @@
       <c r="C5" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>188</v>
       </c>
       <c r="E5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2136,14 +2154,14 @@
       <c r="C6" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>192</v>
       </c>
       <c r="E6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2157,10 +2175,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2168,14 +2186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -2184,7 +2202,7 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2201,7 +2219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2229,7 +2247,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2243,7 +2261,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2257,7 +2275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2271,7 +2289,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2285,7 +2303,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2327,7 +2345,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2341,7 +2359,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2355,7 +2373,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2383,7 +2401,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2411,7 +2429,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2425,7 +2443,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2439,7 +2457,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2523,7 +2541,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2565,7 +2583,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2579,7 +2597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2657,54 +2675,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2727,43 +2745,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>41542</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>32</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>41548</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>24</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>8</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>250</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>120</v>
       </c>
       <c r="G16" s="9">
@@ -2771,52 +2789,52 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13">
         <v>16</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>8</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13">
         <v>8</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="9"/>
     </row>
   </sheetData>
@@ -2827,26 +2845,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2904,7 +2922,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -2991,7 +3009,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3020,7 +3038,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3078,7 +3096,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3136,7 +3154,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11">
         <f>SUM(G2:G10)</f>
         <v>170</v>
@@ -3146,51 +3164,51 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3203,23 +3221,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
     <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3239,20 +3257,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>41542</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>32</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>170</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>545</v>
       </c>
       <c r="F2" s="9">
@@ -3260,18 +3278,26 @@
         <v>18.715596330275229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>41548</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>23</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="16">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16">
+        <v>325</v>
+      </c>
+      <c r="F3" s="9">
+        <f>D3/(E3/60)</f>
+        <v>18.830769230769231</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3282,19 +3308,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +3349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3340,19 +3366,19 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="20">
+        <v>15</v>
+      </c>
+      <c r="I2" s="19">
         <v>41556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3366,22 +3392,22 @@
         <v>199</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="20">
+        <v>80</v>
+      </c>
+      <c r="I3" s="19">
         <v>41562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3398,19 +3424,19 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
       <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4" s="20">
+        <v>40</v>
+      </c>
+      <c r="I4" s="19">
         <v>41562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3423,8 +3449,23 @@
       <c r="D5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5" s="19">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3438,22 +3479,22 @@
         <v>199</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6" s="20">
+        <v>45</v>
+      </c>
+      <c r="I6" s="19">
         <v>41562</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -3466,11 +3507,23 @@
       <c r="D7" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="20">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7" s="19">
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -3484,75 +3537,75 @@
         <v>199</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" s="20">
+        <v>25</v>
+      </c>
+      <c r="I8" s="19">
         <v>41562</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>204</v>
       </c>
@@ -3565,131 +3618,207 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="24"/>
-    <col min="2" max="2" width="26.83203125" style="24" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="24"/>
+    <col min="1" max="1" width="11" style="23"/>
+    <col min="2" max="2" width="26.796875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="E2" s="23">
+        <v>10</v>
+      </c>
+      <c r="F2" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="E3" s="23">
+        <v>15</v>
+      </c>
+      <c r="F3" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="E4" s="23">
+        <v>25</v>
+      </c>
+      <c r="F4" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="E5" s="24">
+        <v>30</v>
+      </c>
+      <c r="F5" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="E6" s="24">
+        <v>15</v>
+      </c>
+      <c r="F6" s="24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>156</v>
+      </c>
+      <c r="E7" s="24">
+        <v>20</v>
+      </c>
+      <c r="F7" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="24">
+        <v>10</v>
+      </c>
+      <c r="F8" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="24">
+        <v>5</v>
+      </c>
+      <c r="F9" s="24">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3699,19 +3828,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3740,7 +3869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -3751,7 +3880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -3762,7 +3891,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3773,7 +3902,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -3791,489 +3920,491 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="27"/>
+    <col min="2" max="2" width="28" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="28" t="s">
         <v>65</v>
       </c>
     </row>

--- a/khrwhjvtReport-2.xlsx
+++ b/khrwhjvtReport-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="5E468C1BB0B3FB08B77CB2336C5D4C315534BE14" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{1D9CDDB5-E3A9-431A-8258-96D399C7BC7A}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="5E468C1BB0B3FB08B77CB2336C5D4C315534BE14" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{2E80B885-34C2-423D-8B68-8528293FA483}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="463" windowWidth="23040" windowHeight="14580" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="23040" windowHeight="13183" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -916,6 +916,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3311,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3621,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -3679,6 +3680,15 @@
       </c>
       <c r="F2" s="23">
         <v>30</v>
+      </c>
+      <c r="G2" s="23">
+        <v>20</v>
+      </c>
+      <c r="H2" s="24">
+        <v>60</v>
+      </c>
+      <c r="I2" s="30">
+        <v>41571</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3923,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>

--- a/khrwhjvtReport-2.xlsx
+++ b/khrwhjvtReport-2.xlsx
@@ -5,19 +5,19 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d58f14bcaf2f6a6/Stevens/SSW 555 - Agile/ssw555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="5E468C1BB0B3FB08B77CB2336C5D4C315534BE14" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{2E80B885-34C2-423D-8B68-8528293FA483}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="5E468C1BB0B3FB08B77CB2336C5D4C315534BE14" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{1C3EF1E3-67D2-4118-A94C-B5998DABCA5E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="463" windowWidth="23040" windowHeight="13183" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="15634" windowHeight="6874" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
-    <sheet name="Sprint1" sheetId="3" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="7" r:id="rId5"/>
+    <sheet name="Burndown" sheetId="7" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
     <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
     <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="218">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -708,6 +708,18 @@
   </si>
   <si>
     <t>Integrating in order</t>
+  </si>
+  <si>
+    <t>Completing work before deadlines</t>
+  </si>
+  <si>
+    <t>Communicating changes that have dependencies</t>
+  </si>
+  <si>
+    <t>Communicating status of work</t>
+  </si>
+  <si>
+    <t>Writing bad unit tests</t>
   </si>
 </sst>
 </file>
@@ -867,7 +879,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -917,6 +929,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2188,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2230,6 +2245,9 @@
       <c r="C2" t="s">
         <v>157</v>
       </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
       <c r="E2" t="s">
         <v>199</v>
       </c>
@@ -2286,6 +2304,9 @@
       <c r="C6" t="s">
         <v>71</v>
       </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
       <c r="E6" t="s">
         <v>199</v>
       </c>
@@ -2300,6 +2321,9 @@
       <c r="C7" t="s">
         <v>72</v>
       </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
       <c r="E7" t="s">
         <v>199</v>
       </c>
@@ -2334,7 +2358,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
@@ -2361,9 +2385,6 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
       <c r="B12" t="s">
         <v>124</v>
       </c>
@@ -2375,9 +2396,6 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
       <c r="B13" t="s">
         <v>125</v>
       </c>
@@ -2426,14 +2444,14 @@
       <c r="C16" t="s">
         <v>82</v>
       </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
       <c r="B17" t="s">
         <v>129</v>
       </c>
@@ -2445,9 +2463,6 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -2459,9 +2474,6 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -2473,9 +2485,6 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -2487,9 +2496,6 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -2510,8 +2516,11 @@
       <c r="C22" t="s">
         <v>88</v>
       </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2524,8 +2533,11 @@
       <c r="C23" t="s">
         <v>91</v>
       </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2543,9 +2555,6 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4</v>
-      </c>
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -2558,7 +2567,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>138</v>
@@ -2571,9 +2580,6 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4</v>
-      </c>
       <c r="B27" t="s">
         <v>139</v>
       </c>
@@ -2586,7 +2592,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>140</v>
@@ -2600,7 +2606,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>141</v>
@@ -2614,7 +2620,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>142</v>
@@ -2627,9 +2633,6 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
       <c r="B31" t="s">
         <v>143</v>
       </c>
@@ -2642,7 +2645,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>144</v>
@@ -2655,9 +2658,6 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
       <c r="B33" t="s">
         <v>145</v>
       </c>
@@ -2665,6 +2665,34 @@
         <v>101</v>
       </c>
       <c r="E33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2846,6 +2874,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="4" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>41542</v>
+      </c>
+      <c r="B2" s="17">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="16">
+        <v>170</v>
+      </c>
+      <c r="E2" s="16">
+        <v>545</v>
+      </c>
+      <c r="F2" s="9">
+        <f>D2/(E2/60)</f>
+        <v>18.715596330275229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>41548</v>
+      </c>
+      <c r="B3" s="18">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16">
+        <v>325</v>
+      </c>
+      <c r="F3" s="9">
+        <f>D3/(E3/60)</f>
+        <v>18.830769230769231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -3221,99 +3336,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
-    <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>41542</v>
-      </c>
-      <c r="B2" s="17">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" s="16">
-        <v>170</v>
-      </c>
-      <c r="E2" s="16">
-        <v>545</v>
-      </c>
-      <c r="F2" s="9">
-        <f>D2/(E2/60)</f>
-        <v>18.715596330275229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>41548</v>
-      </c>
-      <c r="B3" s="18">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="16">
-        <v>102</v>
-      </c>
-      <c r="E3" s="16">
-        <v>325</v>
-      </c>
-      <c r="F3" s="9">
-        <f>D3/(E3/60)</f>
-        <v>18.830769230769231</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B25" sqref="B14:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -3620,10 +3648,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -3672,8 +3700,8 @@
       <c r="C2" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>156</v>
+      <c r="D2" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="E2" s="23">
         <v>10</v>
@@ -3701,14 +3729,23 @@
       <c r="C3" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>156</v>
+      <c r="D3" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="E3" s="23">
         <v>15</v>
       </c>
       <c r="F3" s="23">
         <v>40</v>
+      </c>
+      <c r="G3" s="23">
+        <v>12</v>
+      </c>
+      <c r="H3" s="23">
+        <v>70</v>
+      </c>
+      <c r="I3" s="30">
+        <v>41575</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3829,6 +3866,74 @@
       </c>
       <c r="F9" s="24">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="31" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3841,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -3889,6 +3994,15 @@
       <c r="C2" t="s">
         <v>183</v>
       </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3899,6 +4013,15 @@
       </c>
       <c r="C3" t="s">
         <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3933,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
